--- a/inf/6/inf6lab.xlsx
+++ b/inf/6/inf6lab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kupp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kupp\Desktop\itmo_labs\inf\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E47A4-55B1-49C4-8253-FEEFC5768ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661441A-508D-4F0F-B7F1-DCE5E8611ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчёт-колонтитул" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Расчет отпускных" sheetId="5" r:id="rId3"/>
     <sheet name="Диаграмма" sheetId="6" r:id="rId4"/>
     <sheet name="Чемпионат мира" sheetId="7" r:id="rId5"/>
+    <sheet name="ВПР1" sheetId="8" r:id="rId6"/>
+    <sheet name="ВПР2" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>ОО "Магазин", Тольятти, Дзержинского 10</t>
   </si>
@@ -299,6 +301,66 @@
   </si>
   <si>
     <t>Черноморец</t>
+  </si>
+  <si>
+    <t>Таблица 1</t>
+  </si>
+  <si>
+    <t>Количество, шт</t>
+  </si>
+  <si>
+    <t>Итоговая цена</t>
+  </si>
+  <si>
+    <t>Бампер передний</t>
+  </si>
+  <si>
+    <t>Бампер задний</t>
+  </si>
+  <si>
+    <t>Крыло левое заднее</t>
+  </si>
+  <si>
+    <t>Дверь правая передняя</t>
+  </si>
+  <si>
+    <t>Капот</t>
+  </si>
+  <si>
+    <t>Крышка багажника</t>
+  </si>
+  <si>
+    <t>Шкив коленчатого вала</t>
+  </si>
+  <si>
+    <t>Радиатор</t>
+  </si>
+  <si>
+    <t>Зеркало левое</t>
+  </si>
+  <si>
+    <t>Дверь левая передняя</t>
+  </si>
+  <si>
+    <t>Фильтр маслянный</t>
+  </si>
+  <si>
+    <t>Фильтр воздушный</t>
+  </si>
+  <si>
+    <t>Таблица 2</t>
+  </si>
+  <si>
+    <t>Цена, руб/шт</t>
+  </si>
+  <si>
+    <t>Глушитель</t>
+  </si>
+  <si>
+    <t>Пружина буксирная</t>
+  </si>
+  <si>
+    <t>ИТОГО:</t>
   </si>
 </sst>
 </file>
@@ -306,9 +368,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode=";;;"/>
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yy"/>
-    <numFmt numFmtId="168" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
+    <numFmt numFmtId="166" formatCode="yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -413,7 +475,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -857,18 +919,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -878,39 +952,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -919,12 +960,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,12 +1009,6 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -987,26 +1016,14 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,46 +1043,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="10">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="\Н\е\т\ \н\а\ \р\ы\н\к\е"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="167" formatCode="\Н\е\т\ \н\а\ \р\ы\н\к\е"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="\Н\е\т\ \н\а\ \р\ы\н\к\е"/>
     </dxf>
     <dxf>
       <fill>
@@ -1089,153 +1176,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF39E74E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -1246,7 +1186,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;"/>
+      <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2645,338 +2585,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="31">
+      <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="19">
         <v>450</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="20">
         <v>800</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="21">
         <v>772</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="22">
         <f>E10-F10</f>
         <v>28</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="23">
         <f>F10*D10</f>
         <v>347400</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="24">
         <f>G10*D10</f>
         <v>12600</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="31">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="19">
         <v>4008</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="20">
         <v>1</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="21">
         <v>772</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="25">
         <f>E11-F11</f>
         <v>-771</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="23">
         <f t="shared" ref="H11:H14" si="0">F11*D11</f>
         <v>3094176</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="24">
         <f t="shared" ref="I11:I14" si="1">G11*D11</f>
         <v>-3090168</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="31">
+      <c r="A12" s="17">
         <v>3</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="19">
         <v>5190</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="20">
         <v>20</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="25">
         <f t="shared" ref="G12:G14" si="2">E12-F12</f>
         <v>17</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>15570</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="24">
         <f t="shared" si="1"/>
         <v>88230</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="31">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="19">
         <v>18890</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="20">
         <v>7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="21">
         <v>0</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="25">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="24">
         <f t="shared" si="1"/>
         <v>132230</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="31">
+      <c r="A14" s="17">
         <v>5</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="26">
         <v>15900</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="20">
         <v>2002</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="21">
         <v>1001</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="25">
         <f t="shared" si="2"/>
         <v>1001</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="23">
         <f t="shared" si="0"/>
         <v>15915900</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="24">
         <f t="shared" si="1"/>
         <v>15915900</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="27">
         <f>SUM(E10:E14)</f>
         <v>2830</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="28">
         <f>SUM(F10:F14)</f>
         <v>2548</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="29">
         <f>SUM(G10:G14)</f>
         <v>282</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="30">
         <f>SUM(H10:H14)</f>
         <v>19373046</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="31">
         <f>SUM(I10:I14)</f>
         <v>13058792</v>
       </c>
@@ -3002,10 +2942,10 @@
     <mergeCell ref="D7:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:I15">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3034,71 +2974,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="33">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="52">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="52"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="51">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="51">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="33">
         <v>9</v>
       </c>
     </row>
@@ -3135,37 +3075,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="36">
         <v>43100</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="74"/>
@@ -3197,294 +3137,294 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:11" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A10" s="64">
+      <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="38">
         <v>32268</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="37">
         <v>0</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="39">
         <f>DATEDIF(C10,$B$4,"y")</f>
         <v>29</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="37">
         <v>4000</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="37">
         <f>IF(F10&gt;=10,Справочник!$E$7,IF(F10&gt;=5,Справочник!$E$6,0))</f>
         <v>9</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="37">
         <f>IF(D10="ж",Справочник!$E$4*'Расчет отпускных'!E10,0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="37">
         <f>Справочник!$E$3+'Расчет отпускных'!H10+'Расчет отпускных'!I10</f>
         <v>33</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="45">
         <f>ROUND(G10/30*J10,4)</f>
         <v>4400</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="66">
+      <c r="A11" s="46">
         <v>2</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="48">
         <v>40429</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="49">
         <f t="shared" ref="F11:F15" si="0">DATEDIF(C11,$B$4,"y")</f>
         <v>7</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="47">
         <v>8008</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="47">
         <f>IF(F11&gt;=10,Справочник!$E$7,IF(F11&gt;=5,Справочник!$E$6,0))</f>
         <v>3</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="47">
         <f>IF(D11="ж",Справочник!$E$4*'Расчет отпускных'!E11,0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="47">
         <f>Справочник!$E$3+'Расчет отпускных'!H11+'Расчет отпускных'!I11</f>
         <v>27</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="50">
         <f t="shared" ref="K11:K15" si="1">ROUND(G11/30*J11,4)</f>
         <v>7207.2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="66">
+      <c r="A12" s="46">
         <v>3</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="48">
         <v>41619</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="47">
         <v>10</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="47">
         <v>3050</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="47">
         <f>IF(F12&gt;=10,Справочник!$E$7,IF(F12&gt;=5,Справочник!$E$6,0))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="47">
         <f>IF(D12="ж",Справочник!$E$4*'Расчет отпускных'!E12,0)</f>
         <v>20</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="47">
         <f>Справочник!$E$3+'Расчет отпускных'!H12+'Расчет отпускных'!I12</f>
         <v>44</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="50">
         <f t="shared" si="1"/>
         <v>4473.3333000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="66">
+      <c r="A13" s="46">
         <v>4</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="48">
         <v>39004</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="47">
         <v>2</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="47">
         <v>5678</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="47">
         <f>IF(F13&gt;=10,Справочник!$E$7,IF(F13&gt;=5,Справочник!$E$6,0))</f>
         <v>9</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="47">
         <f>IF(D13="ж",Справочник!$E$4*'Расчет отпускных'!E13,0)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="47">
         <f>Справочник!$E$3+'Расчет отпускных'!H13+'Расчет отпускных'!I13</f>
         <v>33</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="50">
         <f t="shared" si="1"/>
         <v>6245.8</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="66">
+      <c r="A14" s="46">
         <v>5</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="48">
         <v>40075</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="47">
         <v>2</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="47">
         <v>6745</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="47">
         <f>IF(F14&gt;=10,Справочник!$E$7,IF(F14&gt;=5,Справочник!$E$6,0))</f>
         <v>3</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="47">
         <f>IF(D14="ж",Справочник!$E$4*'Расчет отпускных'!E14,0)</f>
         <v>4</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="47">
         <f>Справочник!$E$3+'Расчет отпускных'!H14+'Расчет отпускных'!I14</f>
         <v>31</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="50">
         <f t="shared" si="1"/>
         <v>6969.8333000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A15" s="66">
+      <c r="A15" s="46">
         <v>6</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="48">
         <v>28313</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="47">
         <v>7</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="47">
         <v>7777</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="47">
         <f>IF(F15&gt;=10,Справочник!$E$7,IF(F15&gt;=5,Справочник!$E$6,0))</f>
         <v>9</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="47">
         <f>IF(D15="ж",Справочник!$E$4*'Расчет отпускных'!E15,0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="47">
         <f>Справочник!$E$3+'Расчет отпускных'!H15+'Расчет отпускных'!I15</f>
         <v>33</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="50">
         <f t="shared" si="1"/>
         <v>8554.7000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="51">
         <f>ROUND(SUM(K10:K15),3)</f>
         <v>37850.866999999998</v>
       </c>
@@ -3522,7 +3462,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3577,7 +3517,7 @@
       <c r="C2">
         <v>30</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="35">
         <v>17</v>
       </c>
       <c r="E2">
@@ -4337,13 +4277,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$L2&lt;=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$K2&lt;=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4366,6 +4306,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2ADA25CE-5E32-4C81-9445-99CAF6879E9D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J17</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{EC604953-AC19-48C3-AAF6-BF03C4F7AA49}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
@@ -4405,17 +4356,6 @@
           <xm:sqref>F2:F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2ADA25CE-5E32-4C81-9445-99CAF6879E9D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J2:J17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{480F900E-E5FC-460F-81D3-3CB0F4B3BC5E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -4438,4 +4378,327 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08086D6B-E9F2-4929-B5BA-E879D02F6C28}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="76">
+        <v>2</v>
+      </c>
+      <c r="C3" s="77">
+        <f>IF(ISNA(VLOOKUP(A3,ВПР2!$A$3:$B$14,2,FALSE)*B3),"Нет на рынке",VLOOKUP(A3,ВПР2!$A$3:$B$14,2,FALSE)*B3)</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="76">
+        <v>2</v>
+      </c>
+      <c r="C4" s="77">
+        <f>IF(ISNA(VLOOKUP(A4,ВПР2!$A$3:$B$14,2,FALSE)*B4),"Нет на рынке",VLOOKUP(A4,ВПР2!$A$3:$B$14,2,FALSE)*B4)</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="76">
+        <v>1</v>
+      </c>
+      <c r="C5" s="77">
+        <f>IF(ISNA(VLOOKUP(A5,ВПР2!$A$3:$B$14,2,FALSE)*B5),"Нет на рынке",VLOOKUP(A5,ВПР2!$A$3:$B$14,2,FALSE)*B5)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="76">
+        <v>3</v>
+      </c>
+      <c r="C6" s="77" t="str">
+        <f>IF(ISNA(VLOOKUP(A6,ВПР2!$A$3:$B$14,2,FALSE)*B6),"Нет на рынке",VLOOKUP(A6,ВПР2!$A$3:$B$14,2,FALSE)*B6)</f>
+        <v>Нет на рынке</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="76">
+        <v>4</v>
+      </c>
+      <c r="C7" s="77">
+        <f>IF(ISNA(VLOOKUP(A7,ВПР2!$A$3:$B$14,2,FALSE)*B7),"Нет на рынке",VLOOKUP(A7,ВПР2!$A$3:$B$14,2,FALSE)*B7)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="76">
+        <v>1</v>
+      </c>
+      <c r="C8" s="77">
+        <f>IF(ISNA(VLOOKUP(A8,ВПР2!$A$3:$B$14,2,FALSE)*B8),"Нет на рынке",VLOOKUP(A8,ВПР2!$A$3:$B$14,2,FALSE)*B8)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="76">
+        <v>1</v>
+      </c>
+      <c r="C9" s="77">
+        <f>IF(ISNA(VLOOKUP(A9,ВПР2!$A$3:$B$14,2,FALSE)*B9),"Нет на рынке",VLOOKUP(A9,ВПР2!$A$3:$B$14,2,FALSE)*B9)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="76">
+        <v>5</v>
+      </c>
+      <c r="C10" s="77">
+        <f>IF(ISNA(VLOOKUP(A10,ВПР2!$A$3:$B$14,2,FALSE)*B10),"Нет на рынке",VLOOKUP(A10,ВПР2!$A$3:$B$14,2,FALSE)*B10)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="76">
+        <v>2</v>
+      </c>
+      <c r="C11" s="77">
+        <f>IF(ISNA(VLOOKUP(A11,ВПР2!$A$3:$B$14,2,FALSE)*B11),"Нет на рынке",VLOOKUP(A11,ВПР2!$A$3:$B$14,2,FALSE)*B11)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="76">
+        <v>1</v>
+      </c>
+      <c r="C12" s="77" t="str">
+        <f>IF(ISNA(VLOOKUP(A12,ВПР2!$A$3:$B$14,2,FALSE)*B12),"Нет на рынке",VLOOKUP(A12,ВПР2!$A$3:$B$14,2,FALSE)*B12)</f>
+        <v>Нет на рынке</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="76">
+        <v>10</v>
+      </c>
+      <c r="C13" s="77">
+        <f>IF(ISNA(VLOOKUP(A13,ВПР2!$A$3:$B$14,2,FALSE)*B13),"Нет на рынке",VLOOKUP(A13,ВПР2!$A$3:$B$14,2,FALSE)*B13)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="76">
+        <v>8</v>
+      </c>
+      <c r="C14" s="77">
+        <f>IF(ISNA(VLOOKUP(A14,ВПР2!$A$3:$B$14,2,FALSE)*B14),"Нет на рынке",VLOOKUP(A14,ВПР2!$A$3:$B$14,2,FALSE)*B14)</f>
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="76">
+        <f>SUM(C3:C14)</f>
+        <v>101140</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:C14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Нет на рынке">
+      <formula>NOT(ISERROR(SEARCH("Нет на рынке",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FFAC76-FF81-4320-8B36-52CA90C1698D}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="76">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="76">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="76">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="76">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="76">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="76">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="76">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="76">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="76">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="76">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="76">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>